--- a/trend_results/Contact_Recreation/RangitikeiEstuaryatRiverMouth_854799f621.xlsx
+++ b/trend_results/Contact_Recreation/RangitikeiEstuaryatRiverMouth_854799f621.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>site name</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>RepSite</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,31 +567,31 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>0.0001038681880907</v>
+        <v>0.8883086098076231</v>
       </c>
       <c r="G2">
-        <v>0.0341880341880342</v>
+        <v>0.0081967213114754</v>
       </c>
       <c r="H2">
-        <v>0.64957264957265</v>
+        <v>0.745901639344262</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="K2">
-        <v>48.2719931165878</v>
+        <v>-13.1831210191083</v>
       </c>
       <c r="L2">
-        <v>22.9680538775821</v>
+        <v>-43.5781646463185</v>
       </c>
       <c r="M2">
-        <v>84.7156681714756</v>
+        <v>3.64179134964169</v>
       </c>
       <c r="N2">
-        <v>29.9826044202409</v>
+        <v>-6.59156050955414</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -603,19 +606,90 @@
         <v>5536693</v>
       </c>
       <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>0.003933542390877</v>
+      </c>
+      <c r="G3">
+        <v>0.033175355450237</v>
+      </c>
+      <c r="H3">
+        <v>0.625592417061611</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>134</v>
+      </c>
+      <c r="K3">
+        <v>10.449931880109</v>
+      </c>
+      <c r="L3">
+        <v>2.97545695070713</v>
+      </c>
+      <c r="M3">
+        <v>19.505298028349</v>
+      </c>
+      <c r="N3">
+        <v>7.79845662694701</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Q3">
+        <v>1789280</v>
+      </c>
+      <c r="R3">
+        <v>5536693</v>
+      </c>
+      <c r="S3" t="s">
         <v>29</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T3" t="s">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U3" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V3" t="s">
         <v>32</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
